--- a/Exercicio 2/LRPeformance.xlsx
+++ b/Exercicio 2/LRPeformance.xlsx
@@ -429,13 +429,13 @@
         <v>0.8349080059671805</v>
       </c>
       <c r="E2">
-        <v>0.8542168674698796</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="F2">
-        <v>0.9403183023872679</v>
+        <v>0.5188866799204771</v>
       </c>
       <c r="G2">
-        <v>0.8952020202020202</v>
+        <v>0.6112412177985949</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,13 +452,13 @@
         <v>0.8368970661362506</v>
       </c>
       <c r="E3">
-        <v>0.8567110036275696</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="F3">
-        <v>0.9396551724137931</v>
+        <v>0.5288270377733598</v>
       </c>
       <c r="G3">
-        <v>0.8962681846932322</v>
+        <v>0.6186046511627907</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,13 +475,13 @@
         <v>0.8378915962207857</v>
       </c>
       <c r="E4">
-        <v>0.8589068825910932</v>
+        <v>0.7429094236047575</v>
       </c>
       <c r="F4">
-        <v>0.9378868258178603</v>
+        <v>0.538104705102717</v>
       </c>
       <c r="G4">
-        <v>0.8966610312764161</v>
+        <v>0.6241352805534205</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,13 +498,13 @@
         <v>0.8390518813194099</v>
       </c>
       <c r="E5">
-        <v>0.8610038610038609</v>
+        <v>0.7419064748201439</v>
       </c>
       <c r="F5">
-        <v>0.9365605658709107</v>
+        <v>0.5467196819085487</v>
       </c>
       <c r="G5">
-        <v>0.8971942826892536</v>
+        <v>0.629530713468142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -521,13 +521,13 @@
         <v>0.8433615116857285</v>
       </c>
       <c r="E6">
-        <v>0.864089521871821</v>
+        <v>0.7522361359570662</v>
       </c>
       <c r="F6">
-        <v>0.9387709991158267</v>
+        <v>0.5573227302849569</v>
       </c>
       <c r="G6">
-        <v>0.8998834622311686</v>
+        <v>0.6402740768937952</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -544,13 +544,13 @@
         <v>0.845682081882977</v>
       </c>
       <c r="E7">
-        <v>0.8667074913247601</v>
+        <v>0.7548500881834215</v>
       </c>
       <c r="F7">
-        <v>0.9385499557913352</v>
+        <v>0.5672630881378397</v>
       </c>
       <c r="G7">
-        <v>0.9011991934628036</v>
+        <v>0.6477487703367386</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -567,13 +567,13 @@
         <v>0.8468423669816012</v>
       </c>
       <c r="E8">
-        <v>0.8676470588235294</v>
+        <v>0.7572559366754618</v>
       </c>
       <c r="F8">
-        <v>0.9389920424403183</v>
+        <v>0.5705765407554672</v>
       </c>
       <c r="G8">
-        <v>0.9019108280254777</v>
+        <v>0.6507936507936508</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -590,13 +590,13 @@
         <v>0.8458478368970661</v>
       </c>
       <c r="E9">
-        <v>0.866734693877551</v>
+        <v>0.7555163283318623</v>
       </c>
       <c r="F9">
-        <v>0.9387709991158267</v>
+        <v>0.5672630881378397</v>
       </c>
       <c r="G9">
-        <v>0.9013157894736842</v>
+        <v>0.647993943981832</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -613,13 +613,13 @@
         <v>0.8461793469252444</v>
       </c>
       <c r="E10">
-        <v>0.866938775510204</v>
+        <v>0.7563989408649603</v>
       </c>
       <c r="F10">
-        <v>0.9389920424403183</v>
+        <v>0.5679257786613652</v>
       </c>
       <c r="G10">
-        <v>0.9015280135823429</v>
+        <v>0.6487509462528388</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -636,13 +636,13 @@
         <v>0.8458478368970661</v>
       </c>
       <c r="E11">
-        <v>0.8665850673194615</v>
+        <v>0.7559681697612732</v>
       </c>
       <c r="F11">
-        <v>0.9389920424403183</v>
+        <v>0.5666003976143141</v>
       </c>
       <c r="G11">
-        <v>0.9013367281985997</v>
+        <v>0.6477272727272727</v>
       </c>
     </row>
   </sheetData>
